--- a/src/test/resources/archivos/archivo.xlsx
+++ b/src/test/resources/archivos/archivo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
   <si>
     <t>Documento</t>
   </si>
@@ -131,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -269,6 +269,160 @@
         <v>23</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/resources/archivos/archivo.xlsx
+++ b/src/test/resources/archivos/archivo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="25">
   <si>
     <t>Documento</t>
   </si>
@@ -131,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -423,6 +423,369 @@
         <v>23</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
